--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -53,24 +53,729 @@
     <t>Friday</t>
   </si>
   <si>
+    <t>PRJ301
+SE1622
+D215</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1611
+D223</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1646
+R318</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1633
+D203</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1630
+D204</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1626
+D206</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1601
+D216</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1710
+R204</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1649
+R202</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1650
+R319</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1636
+R402</t>
+  </si>
+  <si>
+    <t>PRF192
+IS1702
+R301</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1616
+D218</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1625
+D203</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1417
+D411</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1415
+D412</t>
+  </si>
+  <si>
+    <t>PRN211
+SE1515-NET
+D319</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1636
+R402</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1630
+D204</t>
+  </si>
+  <si>
+    <t>PRN211
+SE1512-NET
+D316</t>
+  </si>
+  <si>
+    <t>OSG202
+AI1607
+R412</t>
+  </si>
+  <si>
+    <t>OSG202
+AI1606
+R412</t>
+  </si>
+  <si>
+    <t>PRO192
+AI1606
+R412</t>
+  </si>
+  <si>
+    <t>OSG202
+IA1604
+R413</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1646
+R318</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1635
+R403</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1414
+D417</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1416
+D411</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1627
+R308</t>
+  </si>
+  <si>
+    <t>PRN221
+SE1501-NET
+D328</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1644
+R202</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1650
+R319</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1645
+R320</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1413
+D412</t>
+  </si>
+  <si>
+    <t>PRN211
+SE1514-NET
+D319</t>
+  </si>
+  <si>
+    <t>PFP191
+AI1701
+R218</t>
+  </si>
+  <si>
+    <t>CSD301
+AI1504
+D323</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1612
+D219</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1607
+D224</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1603
+D224</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1712
+R208</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1634
+R402</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1701
+R211</t>
+  </si>
+  <si>
+    <t>PFP191
+AI1704
+R220</t>
+  </si>
+  <si>
+    <t>PRF192
+IOT1701
+R303</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1618
+D219</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1707
+R206</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1642
+R318</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1640
+R321</t>
+  </si>
+  <si>
+    <t>PRF192
+IA1701
+R221</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1706
+R203</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1709
+R207</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1724
+R213</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1718
+R217</t>
+  </si>
+  <si>
+    <t>PRF192
+IA1703
+R219</t>
+  </si>
+  <si>
+    <t>PRF192
+IS1701
+R302</t>
+  </si>
+  <si>
+    <t>OSG202
+IS1603
+R413</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1605
+D222</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1641
+R319</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1640
+R321</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1722
+R212</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1726
+R216</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1629
+D205</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1637
+R403</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1623
+D206</t>
+  </si>
+  <si>
+    <t>CSD201
+AI1604
+R315</t>
+  </si>
+  <si>
+    <t>CSD201
+AI1605
+D211</t>
+  </si>
+  <si>
+    <t>JFE301
+JS1402
+D413</t>
+  </si>
+  <si>
+    <t>CSD201
+IS1602
+D213</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1717
+R206</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1721
+R209</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1703
+R210</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1647
+R320</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1708
+R215</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1624
+D207</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1621
+D225</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1615
+D226</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1713
+R205</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1644
+R202</t>
+  </si>
+  <si>
     <t>OSG202
 SE1647
 R320</t>
   </si>
   <si>
+    <t>PRF192
+SE1702
+R212</t>
+  </si>
+  <si>
+    <t>PFP191
+AI1702
+R218</t>
+  </si>
+  <si>
+    <t>DBI202
+IS1602
+D213</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1641
+R319</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1639
+R404</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1631
+D205</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1632
+D207</t>
+  </si>
+  <si>
+    <t>DBI202
+AI1605
+D211</t>
+  </si>
+  <si>
+    <t>DBI202
+IA1603
+D212</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1606
+D216</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1728
+R210</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1623
+D206</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1626
+D206</t>
+  </si>
+  <si>
+    <t>PRF192
+IA1702
+R221</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1602
+D215</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1642
+R318</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1625
+D203</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1624
+D207</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1412
+D413</t>
+  </si>
+  <si>
+    <t>PFP191
+AI1703
+R220</t>
+  </si>
+  <si>
+    <t>PRO192
+IS1603
+R413</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1610
+D217</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1639
+R404</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1643
+R404</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1633
+D203</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1411
+D417</t>
+  </si>
+  <si>
+    <t>PRU211M
+SE1501-NET
+D328</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1620
+D218</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1629
+D205</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1632
+D207</t>
+  </si>
+  <si>
     <t>PRN211
 SE1516-NET
 D318</t>
   </si>
   <si>
     <t>PRN211
-SE1515-NET
-D319</t>
-  </si>
-  <si>
-    <t>PFP191
-AI1701
-R218</t>
+SE1517-NET
+D318</t>
+  </si>
+  <si>
+    <t>DBI202
+AI1604
+R315</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1651
+R321</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1643
+R404</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1704
+R214</t>
+  </si>
+  <si>
+    <t>PRF192
+IA1704
+R219</t>
+  </si>
+  <si>
+    <t>PRO192
+IA1604
+R413</t>
+  </si>
+  <si>
+    <t>PRF192
+PRF192_ADD03
+RoomADD</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1705
+R203</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1711
+R204</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1714
+R207</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1729
+R211</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1649
+R202</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1634
+R402</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1645
+R320</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1648
+R405</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1723
+R213</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1725
+R215</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1716
+R216</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1628
+D204</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1613
+D217</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1604
+D223</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1637
+R403</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1638
+R405</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1628
+D204</t>
+  </si>
+  <si>
+    <t>PRN211
+SE1513-NET
+D316</t>
+  </si>
+  <si>
+    <t>PRN211
+PRN211_ADD02
+RoomADD</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1617
+D214</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1651
+R321</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1631
+D205</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1609
+D214</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1638
+R405</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1648
+R405</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1727
+R214</t>
   </si>
   <si>
     <t>PRO192
@@ -78,64 +783,19 @@
 R412</t>
   </si>
   <si>
-    <t>CSD201
-AI1604
-R315</t>
-  </si>
-  <si>
     <t>PRF192
-SE1728
-R210</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1645
-R320</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1643
-R404</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1716
-R216</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1626
-D206</t>
-  </si>
-  <si>
-    <t>PRF192
-IS1702
+IOT1702
 R301</t>
   </si>
   <si>
     <t>PRJ301
-SE1622
-D215</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1635
-R403</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1629
-D205</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1623
-D206</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1627
-R308</t>
+SE1608
+D222</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1614
+D225</t>
   </si>
   <si>
     <t>PRF192
@@ -144,633 +804,8 @@
   </si>
   <si>
     <t>PRF192
-SE1717
-R206</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1721
-R209</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1703
-R210</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1649
-R202</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1642
-R318</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1718
-R217</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1640
-R321</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1636
-R402</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1639
-R404</t>
-  </si>
-  <si>
-    <t>PRN211
-SE1514-NET
-D319</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1650
-R319</t>
-  </si>
-  <si>
-    <t>OSG202
-IA1604
-R413</t>
-  </si>
-  <si>
-    <t>JFE301
-JS1402
-D413</t>
-  </si>
-  <si>
-    <t>OSG202
-IS1603
-R413</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1645
-R320</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1628
-D204</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1624
-D207</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1624
-D207</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1632
-D207</t>
-  </si>
-  <si>
-    <t>PRF192
-IA1702
-R221</t>
-  </si>
-  <si>
-    <t>PRO192
-IA1604
-R413</t>
-  </si>
-  <si>
-    <t>PRO192
-IS1603
-R413</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1606
-D216</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1608
-D222</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1650
-R319</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1636
-R402</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1701
-R211</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1415
-D412</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1413
-D412</t>
-  </si>
-  <si>
-    <t>PRF192
-PRF192_ADD03
-RoomADD</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1637
-R403</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1637
-R403</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1639
-R404</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1643
-R404</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1638
-R405</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1648
-R405</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1416
-D411</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1609
-D214</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1612
-D219</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1710
-R204</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1711
-R204</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1649
-R202</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1632
-D207</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1625
-D203</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1630
-D204</t>
-  </si>
-  <si>
-    <t>PRN211
-SE1513-NET
-D316</t>
-  </si>
-  <si>
-    <t>PRN211
-SE1517-NET
-D318</t>
-  </si>
-  <si>
-    <t>PRN221
-SE1501-NET
-D328</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1646
-R318</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1646
-R318</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1631
-D205</t>
-  </si>
-  <si>
-    <t>PRF192
-IA1704
-R219</t>
-  </si>
-  <si>
-    <t>OSG202
-AI1607
-R412</t>
-  </si>
-  <si>
-    <t>PRF192
-IA1701
-R221</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1610
-D217</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1611
-D223</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1714
-R207</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1712
-R208</t>
-  </si>
-  <si>
-    <t>PRF192
 SE1720
 R208</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1702
-R212</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1708
-R215</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1633
-D203</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1605
-D222</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1604
-D223</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1603
-D224</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1621
-D225</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1648
-R405</t>
-  </si>
-  <si>
-    <t>DBI202
-AI1605
-D211</t>
-  </si>
-  <si>
-    <t>CSD201
-IS1602
-D213</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1602
-D215</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1620
-D218</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1615
-D226</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1705
-R203</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1704
-R214</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1625
-D203</t>
-  </si>
-  <si>
-    <t>PRO192
-AI1606
-R412</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1614
-D225</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1644
-R202</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1640
-R321</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1629
-D205</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1417
-D411</t>
-  </si>
-  <si>
-    <t>PRN211
-SE1512-NET
-D316</t>
-  </si>
-  <si>
-    <t>DBI202
-AI1604
-R315</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1613
-D217</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1634
-R402</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1633
-D203</t>
-  </si>
-  <si>
-    <t>PRU211M
-SE1501-NET
-D328</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1638
-R405</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1630
-D204</t>
-  </si>
-  <si>
-    <t>PFP191
-AI1704
-R220</t>
-  </si>
-  <si>
-    <t>CSD201
-AI1605
-D211</t>
-  </si>
-  <si>
-    <t>PRN211
-PRN211_ADD02
-RoomADD</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1601
-D216</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1618
-D219</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1709
-R207</t>
-  </si>
-  <si>
-    <t>PRF192
-IOT1701
-R303</t>
-  </si>
-  <si>
-    <t>PRF192
-IOT1702
-R301</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1713
-R205</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1724
-R213</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1725
-R215</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1726
-R216</t>
-  </si>
-  <si>
-    <t>OSG202
-AI1606
-R412</t>
-  </si>
-  <si>
-    <t>PRF192
-IS1701
-R302</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1706
-R203</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1707
-R206</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1651
-R321</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1651
-R321</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1412
-D413</t>
-  </si>
-  <si>
-    <t>PRF192
-IA1703
-R219</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1644
-R202</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1642
-R318</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1641
-R319</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1647
-R320</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1628
-D204</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1626
-D206</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1411
-D417</t>
-  </si>
-  <si>
-    <t>PFP191
-AI1703
-R220</t>
-  </si>
-  <si>
-    <t>DBI202
-IA1603
-D212</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1641
-R319</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1634
-R402</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1623
-D206</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1414
-D417</t>
-  </si>
-  <si>
-    <t>CSD301
-AI1504
-D323</t>
-  </si>
-  <si>
-    <t>DBI202
-IS1602
-D213</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1616
-D218</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1607
-D224</t>
   </si>
   <si>
     <t>PRF192
@@ -778,44 +813,9 @@
 R209</t>
   </si>
   <si>
-    <t>PFP191
-AI1702
-R218</t>
-  </si>
-  <si>
     <t>PRJ301
 PRJ301_ADD01
 RoomADD</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1617
-D214</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1729
-R211</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1722
-R212</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1723
-R213</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1727
-R214</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1631
-D205</t>
   </si>
 </sst>
 </file>
@@ -888,13 +888,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -904,6 +910,9 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -915,25 +924,28 @@
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -941,30 +953,18 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1002,13 +1002,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -1016,16 +1022,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1033,19 +1042,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
       <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -1057,17 +1066,8 @@
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
       <c r="E6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -1075,10 +1075,10 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1116,19 +1116,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
         <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
         <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -1136,49 +1130,64 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
         <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -1220,22 +1229,31 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" t="s">
-        <v>75</v>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1243,19 +1261,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -1263,30 +1281,21 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -1294,10 +1303,10 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1334,11 +1343,20 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -1346,19 +1364,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
         <v>81</v>
       </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
-      </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1366,19 +1384,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -1386,50 +1404,41 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
       <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" t="s">
-        <v>79</v>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1467,19 +1476,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -1487,16 +1496,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
         <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1504,41 +1513,32 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -1546,13 +1546,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1590,50 +1590,32 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="C3" t="s">
-        <v>93</v>
-      </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
       <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -1646,16 +1628,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -1663,19 +1645,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
         <v>96</v>
       </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
       <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
         <v>96</v>
       </c>
-      <c r="E7" t="s">
-        <v>97</v>
-      </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1713,19 +1695,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -1733,16 +1709,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" t="s">
         <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1750,13 +1723,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -1764,21 +1737,30 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="F6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -1789,13 +1771,13 @@
         <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
         <v>100</v>
@@ -1836,20 +1818,38 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
       <c r="E3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1857,11 +1857,20 @@
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="F4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -1873,28 +1882,19 @@
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1932,27 +1932,39 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1960,13 +1972,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -1974,32 +1992,23 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="E6" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2037,13 +2046,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -2051,28 +2060,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="C4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
@@ -2081,8 +2081,14 @@
       <c r="B5" t="s">
         <v>118</v>
       </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
       <c r="D5" t="s">
         <v>118</v>
+      </c>
+      <c r="E5" t="s">
+        <v>119</v>
       </c>
       <c r="F5" t="s">
         <v>118</v>
@@ -2092,19 +2098,31 @@
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="F7" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2142,41 +2160,41 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -2186,14 +2204,8 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -2203,8 +2215,14 @@
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -2212,13 +2230,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2256,32 +2274,41 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -2289,39 +2316,30 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>121</v>
-      </c>
       <c r="C6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -2329,10 +2347,10 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2369,27 +2387,27 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>130</v>
-      </c>
       <c r="C3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2397,25 +2415,25 @@
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
-        <v>129</v>
-      </c>
       <c r="C5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -2423,10 +2441,10 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -2434,19 +2452,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2484,19 +2502,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -2504,19 +2522,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" t="s">
         <v>137</v>
-      </c>
-      <c r="F3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -2524,50 +2542,38 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -2575,19 +2581,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2629,78 +2629,51 @@
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" t="s">
-        <v>146</v>
+      <c r="E3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F4" t="s">
-        <v>141</v>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
-        <v>142</v>
-      </c>
       <c r="C5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>145</v>
       </c>
-      <c r="C6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6" t="s">
-        <v>145</v>
+      <c r="E6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>144</v>
       </c>
-      <c r="D7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2739,41 +2712,50 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="E2" t="s">
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>147</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>148</v>
-      </c>
       <c r="C4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -2781,32 +2763,32 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>149</v>
-      </c>
       <c r="C6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2844,69 +2826,69 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>154</v>
-      </c>
       <c r="C3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>155</v>
-      </c>
       <c r="C4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
       <c r="C5" t="s">
         <v>153</v>
       </c>
+      <c r="D5" t="s">
+        <v>152</v>
+      </c>
       <c r="E5" t="s">
         <v>153</v>
+      </c>
+      <c r="F5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
       <c r="C6" t="s">
         <v>153</v>
+      </c>
+      <c r="D6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -2914,13 +2896,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2968,35 +2950,32 @@
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
+      <c r="E3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3005,16 +2984,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -3022,10 +3004,10 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3063,19 +3045,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -3083,16 +3059,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -3100,13 +3076,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -3114,13 +3096,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -3133,6 +3115,9 @@
       <c r="D6" t="s">
         <v>27</v>
       </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
       <c r="F6" t="s">
         <v>27</v>
       </c>
@@ -3141,14 +3126,11 @@
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3185,14 +3167,11 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -3200,51 +3179,72 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
       <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
       <c r="E4" t="s">
         <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3286,8 +3286,17 @@
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -3295,21 +3304,30 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
       <c r="C5" t="s">
         <v>36</v>
       </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
       <c r="E5" t="s">
         <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -3317,16 +3335,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -3334,13 +3355,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3377,51 +3404,42 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
       <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
       <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -3429,13 +3447,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -3443,16 +3467,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -3460,19 +3487,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3510,70 +3537,43 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -3581,19 +3581,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -3601,10 +3601,10 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3641,73 +3641,79 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
       <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
       <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
       <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -3715,19 +3721,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -53,14 +53,464 @@
     <t>Friday</t>
   </si>
   <si>
+    <t>OSG202
+SE1649
+R202</t>
+  </si>
+  <si>
+    <t>OSG202
+AI1607
+R412</t>
+  </si>
+  <si>
+    <t>PRF192
+PRF192_ADD03
+RoomADD</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1711
+R204</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1714
+R207</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1641
+R319</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1718
+R217</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1628
+D204</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1628
+D204</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1630
+D204</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1623
+D206</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1649
+R202</t>
+  </si>
+  <si>
+    <t>PRO192
+AI1606
+R412</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1721
+R209</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1642
+R318</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1636
+R402</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1638
+R405</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1633
+D203</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1629
+D205</t>
+  </si>
+  <si>
+    <t>PRN211
+SE1517-NET
+D318</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1627
+R308</t>
+  </si>
+  <si>
+    <t>OSG202
+IA1604
+R413</t>
+  </si>
+  <si>
+    <t>CSD301
+AI1504
+D323</t>
+  </si>
+  <si>
+    <t>PRN211
+PRN211_ADD02
+RoomADD</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1608
+D222</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1647
+R320</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1640
+R321</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1626
+D206</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1411
+D417</t>
+  </si>
+  <si>
+    <t>PFP191
+AI1704
+R220</t>
+  </si>
+  <si>
+    <t>JFE301
+JS1402
+D413</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1602
+D215</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1705
+R203</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1707
+R206</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1625
+D203</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1632
+D207</t>
+  </si>
+  <si>
+    <t>PFP191
+AI1701
+R218</t>
+  </si>
+  <si>
+    <t>PRF192
+IOT1701
+R303</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1609
+D214</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1639
+R404</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1648
+R405</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1722
+R212</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1724
+R213</t>
+  </si>
+  <si>
+    <t>PRN211
+SE1516-NET
+D318</t>
+  </si>
+  <si>
+    <t>PRF192
+IA1704
+R219</t>
+  </si>
+  <si>
+    <t>PRF192
+IA1702
+R221</t>
+  </si>
+  <si>
+    <t>OSG202
+IS1603
+R413</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1610
+D217</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1616
+D218</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1604
+D223</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1706
+R203</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1720
+R208</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1651
+R321</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1727
+R214</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1617
+D214</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1647
+R320</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1636
+R402</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1417
+D411</t>
+  </si>
+  <si>
+    <t>PRU211M
+SE1501-NET
+D328</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1650
+R319</t>
+  </si>
+  <si>
+    <t>PRN211
+SE1512-NET
+D316</t>
+  </si>
+  <si>
+    <t>PRN211
+SE1515-NET
+D319</t>
+  </si>
+  <si>
+    <t>CSD201
+AI1604
+R315</t>
+  </si>
+  <si>
+    <t>PRJ301
+PRJ301_ADD01
+RoomADD</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1601
+D216</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1719
+R209</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1640
+R321</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1643
+R404</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1723
+R213</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1612
+D219</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1605
+D222</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1713
+R205</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1712
+R208</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1635
+R403</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1701
+R211</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1702
+R212</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1708
+R215</t>
+  </si>
+  <si>
+    <t>PRF192
+IS1701
+R302</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1620
+D218</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1642
+R318</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1639
+R404</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1631
+D205</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1624
+D207</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1414
+D417</t>
+  </si>
+  <si>
+    <t>PRO192
+AI1607
+R412</t>
+  </si>
+  <si>
+    <t>PFP191
+AI1703
+R220</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1613
+D217</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1703
+R210</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1646
+R318</t>
+  </si>
+  <si>
     <t>PRJ301
 SE1622
 D215</t>
   </si>
   <si>
     <t>PRJ301
-SE1611
-D223</t>
+SE1606
+D216</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1618
+D219</t>
   </si>
   <si>
     <t>PRO192
@@ -68,64 +518,214 @@
 R318</t>
   </si>
   <si>
+    <t>DBI202
+SE1629
+D205</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1623
+D206</t>
+  </si>
+  <si>
+    <t>PRO192
+IA1604
+R413</t>
+  </si>
+  <si>
+    <t>PRO192
+IS1603
+R413</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1644
+R202</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1638
+R405</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1648
+R405</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1631
+D205</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1626
+D206</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1413
+D412</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1412
+D413</t>
+  </si>
+  <si>
+    <t>OSG202
+AI1606
+R412</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1416
+D411</t>
+  </si>
+  <si>
+    <t>PRN211
+SE1514-NET
+D319</t>
+  </si>
+  <si>
+    <t>CSD201
+AI1605
+D211</t>
+  </si>
+  <si>
+    <t>CSD201
+IS1602
+D213</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1729
+R211</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1645
+R320</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1634
+R402</t>
+  </si>
+  <si>
+    <t>PRF192
+IA1701
+R221</t>
+  </si>
+  <si>
+    <t>PRF192
+IOT1702
+R301</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1621
+D225</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1715
+R205</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1634
+R402</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1726
+R216</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1641
+R319</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1637
+R403</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1704
+R214</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1725
+R215</t>
+  </si>
+  <si>
     <t>CSD201
 SE1633
 D203</t>
   </si>
   <si>
+    <t>PRN211
+SE1513-NET
+D316</t>
+  </si>
+  <si>
+    <t>PRF192
+IA1703
+R219</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1603
+D224</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1615
+D226</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1644
+R202</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1650
+R319</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1645
+R320</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1651
+R321</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1637
+R403</t>
+  </si>
+  <si>
     <t>CSD201
+SE1625
+D203</t>
+  </si>
+  <si>
+    <t>DBI202
 SE1630
 D204</t>
   </si>
   <si>
-    <t>CSD201
-SE1626
-D206</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1601
-D216</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1710
-R204</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1649
-R202</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1650
-R319</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1636
-R402</t>
-  </si>
-  <si>
-    <t>PRF192
-IS1702
-R301</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1616
-D218</t>
-  </si>
-  <si>
     <t>DBI202
-SE1625
-D203</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1417
-D411</t>
+SE1624
+D207</t>
   </si>
   <si>
     <t>DBW301
@@ -133,114 +733,14 @@
 D412</t>
   </si>
   <si>
-    <t>PRN211
-SE1515-NET
-D319</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1636
-R402</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1630
-D204</t>
-  </si>
-  <si>
-    <t>PRN211
-SE1512-NET
-D316</t>
-  </si>
-  <si>
-    <t>OSG202
-AI1607
-R412</t>
-  </si>
-  <si>
-    <t>OSG202
-AI1606
-R412</t>
-  </si>
-  <si>
-    <t>PRO192
-AI1606
-R412</t>
-  </si>
-  <si>
-    <t>OSG202
-IA1604
-R413</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1646
-R318</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1635
-R403</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1414
-D417</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1416
-D411</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1627
-R308</t>
-  </si>
-  <si>
     <t>PRN221
 SE1501-NET
 D328</t>
   </si>
   <si>
-    <t>OSG202
-SE1644
-R202</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1650
-R319</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1645
-R320</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1413
-D412</t>
-  </si>
-  <si>
-    <t>PRN211
-SE1514-NET
-D319</t>
-  </si>
-  <si>
-    <t>PFP191
-AI1701
-R218</t>
-  </si>
-  <si>
-    <t>CSD301
-AI1504
-D323</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1612
-D219</t>
+    <t>DBI202
+IA1603
+D212</t>
   </si>
   <si>
     <t>PRJ301
@@ -248,214 +748,14 @@
 D224</t>
   </si>
   <si>
-    <t>PRJ301
-SE1603
-D224</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1712
-R208</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1634
-R402</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1701
-R211</t>
-  </si>
-  <si>
-    <t>PFP191
-AI1704
-R220</t>
-  </si>
-  <si>
-    <t>PRF192
-IOT1701
-R303</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1618
-D219</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1707
-R206</t>
-  </si>
-  <si>
     <t>OSG202
-SE1642
-R318</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1640
-R321</t>
-  </si>
-  <si>
-    <t>PRF192
-IA1701
-R221</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1706
-R203</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1709
-R207</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1724
-R213</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1718
-R217</t>
-  </si>
-  <si>
-    <t>PRF192
-IA1703
-R219</t>
-  </si>
-  <si>
-    <t>PRF192
-IS1701
-R302</t>
-  </si>
-  <si>
-    <t>OSG202
-IS1603
-R413</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1605
-D222</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1641
-R319</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1640
-R321</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1722
-R212</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1726
-R216</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1629
-D205</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1637
-R403</t>
+SE1643
+R404</t>
   </si>
   <si>
     <t>CSD201
-SE1623
-D206</t>
-  </si>
-  <si>
-    <t>CSD201
-AI1604
-R315</t>
-  </si>
-  <si>
-    <t>CSD201
-AI1605
-D211</t>
-  </si>
-  <si>
-    <t>JFE301
-JS1402
-D413</t>
-  </si>
-  <si>
-    <t>CSD201
-IS1602
-D213</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1717
-R206</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1721
-R209</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1703
-R210</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1647
-R320</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1708
-R215</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1624
+SE1632
 D207</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1621
-D225</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1615
-D226</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1713
-R205</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1644
-R202</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1647
-R320</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1702
-R212</t>
   </si>
   <si>
     <t>PFP191
@@ -464,28 +764,48 @@
   </si>
   <si>
     <t>DBI202
-IS1602
-D213</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1641
-R319</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1639
-R404</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1631
-D205</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1632
-D207</t>
+AI1604
+R315</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1614
+D225</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1710
+R204</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1717
+R206</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1716
+R216</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1611
+D223</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1709
+R207</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1728
+R210</t>
+  </si>
+  <si>
+    <t>PRF192
+IS1702
+R301</t>
   </si>
   <si>
     <t>DBI202
@@ -494,328 +814,8 @@
   </si>
   <si>
     <t>DBI202
-IA1603
-D212</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1606
-D216</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1728
-R210</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1623
-D206</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1626
-D206</t>
-  </si>
-  <si>
-    <t>PRF192
-IA1702
-R221</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1602
-D215</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1642
-R318</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1625
-D203</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1624
-D207</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1412
-D413</t>
-  </si>
-  <si>
-    <t>PFP191
-AI1703
-R220</t>
-  </si>
-  <si>
-    <t>PRO192
-IS1603
-R413</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1610
-D217</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1639
-R404</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1643
-R404</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1633
-D203</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1411
-D417</t>
-  </si>
-  <si>
-    <t>PRU211M
-SE1501-NET
-D328</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1620
-D218</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1629
-D205</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1632
-D207</t>
-  </si>
-  <si>
-    <t>PRN211
-SE1516-NET
-D318</t>
-  </si>
-  <si>
-    <t>PRN211
-SE1517-NET
-D318</t>
-  </si>
-  <si>
-    <t>DBI202
-AI1604
-R315</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1651
-R321</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1643
-R404</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1704
-R214</t>
-  </si>
-  <si>
-    <t>PRF192
-IA1704
-R219</t>
-  </si>
-  <si>
-    <t>PRO192
-IA1604
-R413</t>
-  </si>
-  <si>
-    <t>PRF192
-PRF192_ADD03
-RoomADD</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1705
-R203</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1711
-R204</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1714
-R207</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1729
-R211</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1649
-R202</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1634
-R402</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1645
-R320</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1648
-R405</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1723
-R213</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1725
-R215</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1716
-R216</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1628
-D204</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1613
-D217</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1604
-D223</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1637
-R403</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1638
-R405</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1628
-D204</t>
-  </si>
-  <si>
-    <t>PRN211
-SE1513-NET
-D316</t>
-  </si>
-  <si>
-    <t>PRN211
-PRN211_ADD02
-RoomADD</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1617
-D214</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1651
-R321</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1631
-D205</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1609
-D214</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1638
-R405</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1648
-R405</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1727
-R214</t>
-  </si>
-  <si>
-    <t>PRO192
-AI1607
-R412</t>
-  </si>
-  <si>
-    <t>PRF192
-IOT1702
-R301</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1608
-D222</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1614
-D225</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1715
-R205</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1720
-R208</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1719
-R209</t>
-  </si>
-  <si>
-    <t>PRJ301
-PRJ301_ADD01
-RoomADD</t>
+IS1602
+D213</t>
   </si>
 </sst>
 </file>
@@ -888,78 +888,33 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -1001,19 +956,10 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
       <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1022,38 +968,29 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
-      </c>
       <c r="E4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1067,7 +1004,7 @@
         <v>5.0</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -1075,10 +1012,10 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1116,26 +1053,20 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1143,56 +1074,53 @@
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1229,11 +1157,14 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>74</v>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -1241,19 +1172,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1261,52 +1186,46 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" t="s">
-        <v>79</v>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="E6" t="s">
-        <v>77</v>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1344,39 +1263,30 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
       <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
         <v>81</v>
-      </c>
-      <c r="F3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1384,19 +1294,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
         <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
         <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -1404,41 +1314,41 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1475,20 +1385,11 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
       <c r="C2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -1496,16 +1397,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1513,32 +1414,44 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -1546,13 +1459,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1589,33 +1508,33 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -1627,37 +1546,19 @@
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1694,14 +1595,11 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" t="s">
-        <v>99</v>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -1709,13 +1607,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1723,24 +1624,27 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" t="s">
-        <v>101</v>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -1748,39 +1652,27 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" t="s">
         <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
-      <c r="B7" t="s">
-        <v>100</v>
-      </c>
       <c r="C7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1817,20 +1709,11 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
       <c r="C2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -1838,63 +1721,72 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>106</v>
-      </c>
       <c r="C4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1931,40 +1823,19 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1974,14 +1845,8 @@
       <c r="B4" t="s">
         <v>113</v>
       </c>
-      <c r="C4" t="s">
-        <v>114</v>
-      </c>
       <c r="D4" t="s">
         <v>113</v>
-      </c>
-      <c r="E4" t="s">
-        <v>114</v>
       </c>
       <c r="F4" t="s">
         <v>113</v>
@@ -1992,18 +1857,27 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -2046,52 +1920,52 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" t="s">
-        <v>122</v>
+      <c r="E3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -2099,30 +1973,12 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2159,14 +2015,11 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -2174,41 +2027,41 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -2218,8 +2071,14 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
       <c r="D6" t="s">
         <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -2230,13 +2089,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2273,84 +2138,66 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" t="s">
-        <v>128</v>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" t="s">
-        <v>125</v>
+      <c r="C3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="C6" t="s">
-        <v>127</v>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="F6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="F7" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2388,27 +2235,39 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -2416,13 +2275,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>123</v>
+      </c>
+      <c r="E4" t="s">
+        <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -2430,10 +2295,10 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -2441,10 +2306,7 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -2452,19 +2314,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2501,20 +2357,11 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>142</v>
-      </c>
       <c r="C2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -2522,19 +2369,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -2545,13 +2392,13 @@
         <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
         <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
         <v>138</v>
@@ -2561,19 +2408,31 @@
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" t="s">
-        <v>140</v>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -2581,13 +2440,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>135</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2624,23 +2489,50 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>145</v>
+      </c>
+      <c r="F3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
       <c r="C4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" t="s">
         <v>143</v>
       </c>
       <c r="E4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2648,32 +2540,23 @@
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="C5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="C6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
         <v>144</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2715,13 +2598,13 @@
         <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
         <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
         <v>151</v>
@@ -2731,19 +2614,7 @@
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>150</v>
-      </c>
       <c r="C3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2751,12 +2622,6 @@
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="C4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
@@ -2773,22 +2638,22 @@
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
       <c r="C6" t="s">
         <v>148</v>
       </c>
-      <c r="E6" t="s">
-        <v>146</v>
+      <c r="D6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2825,21 +2690,21 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="C3" t="s">
-        <v>155</v>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" t="s">
+        <v>157</v>
       </c>
       <c r="E3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2848,10 +2713,10 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -2859,19 +2724,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -2880,9 +2739,6 @@
       </c>
       <c r="B6" t="s">
         <v>156</v>
-      </c>
-      <c r="C6" t="s">
-        <v>153</v>
       </c>
       <c r="D6" t="s">
         <v>156</v>
@@ -2939,75 +2795,48 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3045,13 +2874,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -3061,11 +2896,11 @@
       <c r="B3" t="s">
         <v>22</v>
       </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
       <c r="D3" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
@@ -3078,14 +2913,8 @@
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
       <c r="D4" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -3095,42 +2924,24 @@
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3167,11 +2978,14 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -3179,19 +2993,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -3199,52 +3010,34 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3281,22 +3074,22 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
       <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -3304,10 +3097,10 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -3315,19 +3108,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -3335,39 +3128,30 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
       <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3404,42 +3188,33 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -3447,39 +3222,30 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
       <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -3487,19 +3253,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3537,19 +3303,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
@@ -3561,19 +3345,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -3581,19 +3365,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -3601,10 +3385,10 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3641,42 +3425,42 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
       <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
       <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -3684,36 +3468,27 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
       <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -53,119 +53,704 @@
     <t>Friday</t>
   </si>
   <si>
+    <t>PRJ301
+SE1602
+D215</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1644
+R202</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1646
+R318</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1650
+R319</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1626
+D206</t>
+  </si>
+  <si>
+    <t>PRO192
+AI1606
+R412</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1721
+R209</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1651
+R321</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1643
+R404</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1638
+R405</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1718
+R217</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1623
+D206</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1610
+D217</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1637
+R403</t>
+  </si>
+  <si>
+    <t>PRN211
+SE1513-NET
+D316</t>
+  </si>
+  <si>
+    <t>CSD301
+AI1504
+D323</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1604
+D223</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1717
+R206</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1709
+R207</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1642
+R318</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1640
+R321</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1634
+R402</t>
+  </si>
+  <si>
+    <t>PRF192
+IOT1701
+R303</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1650
+R319</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1638
+R405</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1625
+D203</t>
+  </si>
+  <si>
+    <t>PRN211
+SE1515-NET
+D319</t>
+  </si>
+  <si>
+    <t>DBI202
+AI1604
+R315</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1614
+D225</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1639
+R404</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1633
+D203</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1632
+D207</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1415
+D412</t>
+  </si>
+  <si>
+    <t>PRN211
+SE1516-NET
+D318</t>
+  </si>
+  <si>
+    <t>PFP191
+AI1704
+R220</t>
+  </si>
+  <si>
+    <t>PRO192
+IS1603
+R413</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1607
+D224</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1642
+R318</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1636
+R402</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1702
+R212</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1704
+R214</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1631
+D205</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1632
+D207</t>
+  </si>
+  <si>
+    <t>PRF192
+IA1704
+R219</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1620
+D218</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1615
+D226</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1712
+R208</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1634
+R402</t>
+  </si>
+  <si>
+    <t>PRN211
+SE1514-NET
+D319</t>
+  </si>
+  <si>
+    <t>PRF192
+IOT1702
+R301</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1613
+D217</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1710
+R204</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1711
+R204</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1703
+R210</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1641
+R319</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1651
+R321</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1643
+R404</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1618
+D219</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1649
+R202</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1640
+R321</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1724
+R213</t>
+  </si>
+  <si>
+    <t>PRF192
+IA1702
+R221</t>
+  </si>
+  <si>
+    <t>DBI202
+IS1602
+D213</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1644
+R202</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1646
+R318</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1645
+R320</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1631
+D205</t>
+  </si>
+  <si>
+    <t>PRN211
+SE1517-NET
+D318</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1606
+D216</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1621
+D225</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1714
+R207</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1729
+R211</t>
+  </si>
+  <si>
     <t>OSG202
 SE1649
 R202</t>
   </si>
   <si>
+    <t>PRO192
+SE1645
+R320</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1605
+D222</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1608
+D222</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1719
+R209</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1648
+R405</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1722
+R212</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1726
+R216</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1628
+D204</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1630
+D204</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1616
+D218</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1628
+D204</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1629
+D205</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1626
+D206</t>
+  </si>
+  <si>
+    <t>PFP191
+AI1701
+R218</t>
+  </si>
+  <si>
+    <t>PFP191
+AI1702
+R218</t>
+  </si>
+  <si>
+    <t>PRO192
+AI1607
+R412</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1603
+D224</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1713
+R205</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1629
+D205</t>
+  </si>
+  <si>
+    <t>DBI202
+AI1605
+D211</t>
+  </si>
+  <si>
+    <t>PRU211M
+SE1501-NET
+D328</t>
+  </si>
+  <si>
+    <t>PRF192
+IS1701
+R302</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1637
+R403</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1624
+D207</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1411
+D417</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1627
+R308</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1611
+D223</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1636
+R402</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1625
+D203</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1623
+D206</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1414
+D417</t>
+  </si>
+  <si>
+    <t>CSD201
+AI1604
+R315</t>
+  </si>
+  <si>
+    <t>PRN221
+SE1501-NET
+D328</t>
+  </si>
+  <si>
+    <t>PRJ301
+PRJ301_ADD01
+RoomADD</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1617
+D214</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1633
+D203</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1416
+D411</t>
+  </si>
+  <si>
+    <t>PFP191
+AI1703
+R220</t>
+  </si>
+  <si>
+    <t>CSD201
+AI1605
+D211</t>
+  </si>
+  <si>
+    <t>JFE301
+JS1402
+D413</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1728
+R210</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1417
+D411</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1413
+D412</t>
+  </si>
+  <si>
+    <t>PRF192
+IA1701
+R221</t>
+  </si>
+  <si>
+    <t>OSG202
+IA1604
+R413</t>
+  </si>
+  <si>
+    <t>PRF192
+PRF192_ADD03
+RoomADD</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1705
+R203</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1720
+R208</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1648
+R405</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1725
+R215</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1630
+D204</t>
+  </si>
+  <si>
+    <t>PRF192
+IS1702
+R301</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1715
+R205</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1641
+R319</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1647
+R320</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1647
+R320</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1727
+R214</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1624
+D207</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1612
+D219</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1412
+D413</t>
+  </si>
+  <si>
+    <t>PRN211
+SE1512-NET
+D316</t>
+  </si>
+  <si>
     <t>OSG202
 AI1607
 R412</t>
   </si>
   <si>
-    <t>PRF192
-PRF192_ADD03
-RoomADD</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1711
-R204</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1714
-R207</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1641
-R319</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1718
-R217</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1628
-D204</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1628
-D204</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1630
-D204</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1623
-D206</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1649
-R202</t>
-  </si>
-  <si>
-    <t>PRO192
+    <t>OSG202
 AI1606
 R412</t>
   </si>
   <si>
-    <t>PRF192
-SE1721
-R209</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1642
-R318</t>
+    <t>CSD201
+IS1602
+D213</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1622
+D215</t>
   </si>
   <si>
     <t>OSG202
-SE1636
-R402</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1638
-R405</t>
+SE1639
+R404</t>
   </si>
   <si>
     <t>DBI202
-SE1633
-D203</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1629
-D205</t>
-  </si>
-  <si>
-    <t>PRN211
-SE1517-NET
-D318</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1627
-R308</t>
-  </si>
-  <si>
-    <t>OSG202
-IA1604
-R413</t>
-  </si>
-  <si>
-    <t>CSD301
-AI1504
-D323</t>
+IA1603
+D212</t>
   </si>
   <si>
     <t>PRN211
@@ -173,48 +758,48 @@
 RoomADD</t>
   </si>
   <si>
+    <t>OSG202
+SE1635
+R403</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1723
+R213</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1716
+R216</t>
+  </si>
+  <si>
+    <t>PRF192
+IA1703
+R219</t>
+  </si>
+  <si>
+    <t>PRO192
+IA1604
+R413</t>
+  </si>
+  <si>
+    <t>OSG202
+IS1603
+R413</t>
+  </si>
+  <si>
     <t>PRJ301
-SE1608
-D222</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1647
-R320</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1640
-R321</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1626
-D206</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1411
-D417</t>
-  </si>
-  <si>
-    <t>PFP191
-AI1704
-R220</t>
-  </si>
-  <si>
-    <t>JFE301
-JS1402
-D413</t>
+SE1609
+D214</t>
   </si>
   <si>
     <t>PRJ301
-SE1602
-D215</t>
+SE1601
+D216</t>
   </si>
   <si>
     <t>PRF192
-SE1705
+SE1706
 R203</t>
   </si>
   <si>
@@ -223,599 +808,14 @@
 R206</t>
   </si>
   <si>
-    <t>DBI202
-SE1625
-D203</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1632
-D207</t>
-  </si>
-  <si>
-    <t>PFP191
-AI1701
-R218</t>
-  </si>
-  <si>
-    <t>PRF192
-IOT1701
-R303</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1609
-D214</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1639
-R404</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1648
-R405</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1722
-R212</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1724
-R213</t>
-  </si>
-  <si>
-    <t>PRN211
-SE1516-NET
-D318</t>
-  </si>
-  <si>
-    <t>PRF192
-IA1704
-R219</t>
-  </si>
-  <si>
-    <t>PRF192
-IA1702
-R221</t>
-  </si>
-  <si>
-    <t>OSG202
-IS1603
-R413</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1610
-D217</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1616
-D218</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1604
-D223</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1706
-R203</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1720
-R208</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1651
-R321</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1727
-R214</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1617
-D214</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1647
-R320</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1636
-R402</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1417
-D411</t>
-  </si>
-  <si>
-    <t>PRU211M
-SE1501-NET
-D328</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1650
-R319</t>
-  </si>
-  <si>
-    <t>PRN211
-SE1512-NET
-D316</t>
-  </si>
-  <si>
-    <t>PRN211
-SE1515-NET
-D319</t>
-  </si>
-  <si>
-    <t>CSD201
-AI1604
-R315</t>
-  </si>
-  <si>
-    <t>PRJ301
-PRJ301_ADD01
-RoomADD</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1601
-D216</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1719
-R209</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1640
-R321</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1643
-R404</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1723
-R213</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1612
-D219</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1605
-D222</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1713
-R205</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1712
-R208</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1635
-R403</t>
-  </si>
-  <si>
     <t>PRF192
 SE1701
 R211</t>
   </si>
   <si>
     <t>PRF192
-SE1702
-R212</t>
-  </si>
-  <si>
-    <t>PRF192
 SE1708
 R215</t>
-  </si>
-  <si>
-    <t>PRF192
-IS1701
-R302</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1620
-D218</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1642
-R318</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1639
-R404</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1631
-D205</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1624
-D207</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1414
-D417</t>
-  </si>
-  <si>
-    <t>PRO192
-AI1607
-R412</t>
-  </si>
-  <si>
-    <t>PFP191
-AI1703
-R220</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1613
-D217</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1703
-R210</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1646
-R318</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1622
-D215</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1606
-D216</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1618
-D219</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1646
-R318</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1629
-D205</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1623
-D206</t>
-  </si>
-  <si>
-    <t>PRO192
-IA1604
-R413</t>
-  </si>
-  <si>
-    <t>PRO192
-IS1603
-R413</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1644
-R202</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1638
-R405</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1648
-R405</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1631
-D205</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1626
-D206</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1413
-D412</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1412
-D413</t>
-  </si>
-  <si>
-    <t>OSG202
-AI1606
-R412</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1416
-D411</t>
-  </si>
-  <si>
-    <t>PRN211
-SE1514-NET
-D319</t>
-  </si>
-  <si>
-    <t>CSD201
-AI1605
-D211</t>
-  </si>
-  <si>
-    <t>CSD201
-IS1602
-D213</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1729
-R211</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1645
-R320</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1634
-R402</t>
-  </si>
-  <si>
-    <t>PRF192
-IA1701
-R221</t>
-  </si>
-  <si>
-    <t>PRF192
-IOT1702
-R301</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1621
-D225</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1715
-R205</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1634
-R402</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1726
-R216</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1641
-R319</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1637
-R403</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1704
-R214</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1725
-R215</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1633
-D203</t>
-  </si>
-  <si>
-    <t>PRN211
-SE1513-NET
-D316</t>
-  </si>
-  <si>
-    <t>PRF192
-IA1703
-R219</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1603
-D224</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1615
-D226</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1644
-R202</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1650
-R319</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1645
-R320</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1651
-R321</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1637
-R403</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1625
-D203</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1630
-D204</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1624
-D207</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1415
-D412</t>
-  </si>
-  <si>
-    <t>PRN221
-SE1501-NET
-D328</t>
-  </si>
-  <si>
-    <t>DBI202
-IA1603
-D212</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1607
-D224</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1643
-R404</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1632
-D207</t>
-  </si>
-  <si>
-    <t>PFP191
-AI1702
-R218</t>
-  </si>
-  <si>
-    <t>DBI202
-AI1604
-R315</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1614
-D225</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1710
-R204</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1717
-R206</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1716
-R216</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1611
-D223</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1709
-R207</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1728
-R210</t>
-  </si>
-  <si>
-    <t>PRF192
-IS1702
-R301</t>
-  </si>
-  <si>
-    <t>DBI202
-AI1605
-D211</t>
-  </si>
-  <si>
-    <t>DBI202
-IS1602
-D213</t>
   </si>
 </sst>
 </file>
@@ -888,38 +888,83 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -956,11 +1001,14 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -968,29 +1016,35 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
       <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
         <v>63</v>
       </c>
       <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1003,8 +1057,17 @@
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -1012,10 +1075,10 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1053,21 +1116,30 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1075,52 +1147,43 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1158,41 +1221,41 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>69</v>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -1200,10 +1263,10 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -1211,21 +1274,30 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1263,30 +1335,27 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" t="s">
         <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1294,19 +1363,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -1317,13 +1380,13 @@
         <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
         <v>80</v>
@@ -1334,21 +1397,39 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1385,11 +1466,14 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" t="s">
-        <v>83</v>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -1397,16 +1481,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1414,13 +1498,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
         <v>90</v>
       </c>
       <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
         <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -1428,10 +1518,10 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -1439,19 +1529,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -1459,19 +1546,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1508,13 +1589,31 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1522,19 +1621,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -1546,19 +1645,28 @@
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1595,11 +1703,14 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" t="s">
-        <v>98</v>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -1607,16 +1718,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1624,43 +1732,25 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" t="s">
-        <v>101</v>
-      </c>
       <c r="E6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1669,10 +1759,10 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1709,11 +1799,20 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -1721,19 +1820,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1741,32 +1840,41 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" t="s">
-        <v>109</v>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
       <c r="E6" t="s">
         <v>107</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -1774,19 +1882,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
         <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
         <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1823,19 +1931,22 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" t="s">
-        <v>111</v>
+      <c r="E3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1843,13 +1954,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -1857,27 +1974,36 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -1920,21 +2046,30 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1942,10 +2077,10 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -1953,32 +2088,41 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="C6" t="s">
-        <v>114</v>
+      <c r="E6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2015,72 +2159,63 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2092,13 +2227,13 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -2139,65 +2274,83 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" t="s">
-        <v>121</v>
+      <c r="C6" t="s">
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
-      <c r="B7" t="s">
-        <v>120</v>
-      </c>
       <c r="C7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2234,40 +2387,19 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>127</v>
-      </c>
       <c r="C2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>124</v>
-      </c>
       <c r="C3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -2275,30 +2407,33 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>132</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>132</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -2306,7 +2441,10 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>132</v>
+      </c>
+      <c r="E6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -2314,13 +2452,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2357,11 +2501,14 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" t="s">
-        <v>141</v>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -2369,19 +2516,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -2389,19 +2533,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -2409,50 +2553,32 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="C6" t="s">
-        <v>137</v>
-      </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
-      <c r="B7" t="s">
-        <v>130</v>
-      </c>
       <c r="C7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2490,13 +2616,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -2504,16 +2630,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -2523,14 +2646,8 @@
       <c r="B4" t="s">
         <v>143</v>
       </c>
-      <c r="C4" t="s">
-        <v>145</v>
-      </c>
       <c r="D4" t="s">
         <v>143</v>
-      </c>
-      <c r="E4" t="s">
-        <v>145</v>
       </c>
       <c r="F4" t="s">
         <v>143</v>
@@ -2540,6 +2657,15 @@
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
@@ -2549,15 +2675,6 @@
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2595,26 +2712,35 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
       <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2622,16 +2748,25 @@
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -2639,16 +2774,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -2690,22 +2825,31 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
+      <c r="C2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" t="s">
         <v>157</v>
       </c>
-      <c r="D3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>153</v>
-      </c>
-      <c r="F3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -2713,23 +2857,20 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>155</v>
       </c>
-      <c r="D5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2737,14 +2878,11 @@
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F6" t="s">
-        <v>156</v>
+      <c r="C6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -2754,8 +2892,14 @@
       <c r="B7" t="s">
         <v>154</v>
       </c>
+      <c r="C7" t="s">
+        <v>152</v>
+      </c>
       <c r="D7" t="s">
         <v>154</v>
+      </c>
+      <c r="E7" t="s">
+        <v>152</v>
       </c>
       <c r="F7" t="s">
         <v>154</v>
@@ -2800,19 +2944,37 @@
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -2825,13 +2987,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -2874,19 +3036,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -2894,29 +3056,29 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
+      <c r="E3" t="s">
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2924,24 +3086,42 @@
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2978,14 +3158,11 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -2993,28 +3170,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
@@ -3026,18 +3197,36 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3075,21 +3264,39 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -3097,10 +3304,10 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -3108,19 +3315,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -3128,19 +3335,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -3148,10 +3355,10 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3189,32 +3396,41 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -3222,30 +3438,39 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -3253,19 +3478,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3303,19 +3528,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -3323,72 +3548,63 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
       <c r="C6" t="s">
         <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3426,10 +3642,10 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -3437,16 +3653,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -3454,13 +3670,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -3468,27 +3684,36 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
